--- a/docs/pruebas.xlsx
+++ b/docs/pruebas.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PANA\Documents\sistrans\iter3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PANA\Documents\sistrans\Nueva carpeta\Nueva carpeta\PuertoAndes\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="38">
   <si>
     <t>RF10</t>
   </si>
@@ -126,13 +126,25 @@
   </si>
   <si>
     <t>Se espera que las cargas del area 75 intenten pasar a las demas areas, pero no quepan todas</t>
+  </si>
+  <si>
+    <t>super carga 18</t>
+  </si>
+  <si>
+    <t>super carga 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se espera que ambas cargas cambien estado a A, cambien el id_buque y el id_area </t>
+  </si>
+  <si>
+    <t>Cargas-Fallido</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,6 +159,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF373E4D"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -184,7 +202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -192,6 +210,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -495,348 +514,478 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="A2" s="1"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>18</v>
+      </c>
+      <c r="B6" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
+      <c r="C6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="3">
+        <v>65</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>28</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3">
+        <v>371</v>
+      </c>
+      <c r="J6" s="3">
+        <v>129</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>20</v>
+      </c>
+      <c r="B7" s="3">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="3">
+        <v>40</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>28</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3">
+        <v>383</v>
+      </c>
+      <c r="J7" s="3">
+        <v>160</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
-        <v>14</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="3">
-        <v>150</v>
-      </c>
-      <c r="E10" s="3">
-        <v>2</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1</v>
-      </c>
+      <c r="A9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="3">
+        <v>150</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B26" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="3" t="s">
+      <c r="E26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G26" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H26" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I26" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="J26" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K26" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
         <v>225</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B27" s="3">
         <v>1</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C27" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D27" s="3">
         <v>95</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E27" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F27" s="3">
         <v>50</v>
       </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3">
+      <c r="G27" s="3"/>
+      <c r="H27" s="3">
         <v>14</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I27" s="3">
         <v>272</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J27" s="3">
         <v>170</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K27" s="3">
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
         <v>193</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B28" s="3">
         <v>1</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C28" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D28" s="3">
         <v>22</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E28" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F28" s="3">
         <v>57</v>
       </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3">
+      <c r="G28" s="3"/>
+      <c r="H28" s="3">
         <v>14</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I28" s="3">
         <v>378</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J28" s="3">
         <v>91</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K28" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="3" t="s">
+      <c r="B34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D34" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E34" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F34" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
         <v>56</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B35" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C35" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D35" s="3">
         <v>135</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E35" s="3">
         <v>0</v>
       </c>
-      <c r="F22" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
+      <c r="F35" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
         <v>45</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B36" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C36" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D36" s="3">
         <v>29</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E36" s="3">
         <v>0</v>
       </c>
-      <c r="F23" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
+      <c r="F36" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
         <v>5</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B37" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C37" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D37" s="3">
         <v>2</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E37" s="3">
         <v>2</v>
       </c>
-      <c r="F24" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
+      <c r="F37" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
         <v>86</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B38" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C38" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D38" s="3">
         <v>5</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E38" s="3">
         <v>4</v>
       </c>
-      <c r="F25" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
+      <c r="F38" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
         <v>75</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B39" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C39" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D39" s="3">
         <v>92</v>
       </c>
-      <c r="E26" s="3">
-        <v>7</v>
-      </c>
-      <c r="F26" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
+      <c r="E39" s="3">
+        <v>7</v>
+      </c>
+      <c r="F39" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="3">
         <v>102</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B40" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C40" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D40" s="3">
         <v>5</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E40" s="3">
         <v>0</v>
       </c>
-      <c r="F27" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
+      <c r="F40" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A29:E29"/>
+  <mergeCells count="3">
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="A42:F42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/docs/pruebas.xlsx
+++ b/docs/pruebas.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="39">
   <si>
     <t>RF10</t>
   </si>
@@ -138,13 +138,16 @@
   </si>
   <si>
     <t>Cargas-Fallido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Areas </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,12 +162,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF373E4D"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -202,7 +199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -210,7 +207,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -978,8 +974,70 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="5"/>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="3">
+        <v>45</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D50" s="3">
+        <v>29</v>
+      </c>
+      <c r="E50" s="3">
+        <v>0</v>
+      </c>
+      <c r="F50" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="3">
+        <v>56</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D51" s="3">
+        <v>135</v>
+      </c>
+      <c r="E51" s="3">
+        <v>0</v>
+      </c>
+      <c r="F51" s="3">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
